--- a/abc_py/Progress.xlsx
+++ b/abc_py/Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akiyoshi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\competition\abc_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73F444C-72BE-4066-9E58-D1AD7ACE075F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C60025-3096-4F07-B91B-F26D23CDD5F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{8313301E-11AA-4695-A5E6-C543540D247D}"/>
+    <workbookView xWindow="20370" yWindow="-4230" windowWidth="29040" windowHeight="15990" xr2:uid="{8313301E-11AA-4695-A5E6-C543540D247D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>ABC130</t>
   </si>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>2019/12/14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -131,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +162,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +181,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,17 +244,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -251,21 +282,21 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03CF2B2-87A6-469B-B47B-3F9305100448}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5771FEBF-4AA3-4F30-AEB0-7B7FB4CD0126}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -288,8 +319,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6721929" y="462643"/>
-          <a:ext cx="2895600" cy="4867275"/>
+          <a:off x="6629400" y="457200"/>
+          <a:ext cx="2838450" cy="4810125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -608,301 +639,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E800DED7-390A-49DF-9D79-6859440E1A3E}">
-  <dimension ref="B1:AA22"/>
+  <dimension ref="B2:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.625" style="3"/>
     <col min="2" max="2" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="4.25" style="6" customWidth="1"/>
+    <col min="3" max="8" width="4.25" style="4" customWidth="1"/>
     <col min="9" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
     <row r="2" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA6" s="5" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="s">
+      <c r="C24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="6">
-        <f>COUNTIF(C3:C21,"AC")</f>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="4">
+        <f t="shared" ref="C26:H26" si="0">COUNTIF(C7:C25,"AC")</f>
         <v>19</v>
       </c>
-      <c r="D22" s="6">
-        <f>COUNTIF(D3:D21,"AC")</f>
-        <v>18</v>
-      </c>
-      <c r="E22" s="6">
-        <f>COUNTIF(E3:E21,"AC")</f>
-        <v>5</v>
-      </c>
-      <c r="F22" s="6">
-        <f>COUNTIF(F3:F21,"AC")</f>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="6">
-        <f>COUNTIF(G3:G21,"AC")</f>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="6">
-        <f>COUNTIF(H3:H21,"AC")</f>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/abc_py/Progress.xlsx
+++ b/abc_py/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\competition\abc_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C60025-3096-4F07-B91B-F26D23CDD5F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE741809-8F0C-4519-87C3-41D03CFFF0E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4230" windowWidth="29040" windowHeight="15990" xr2:uid="{8313301E-11AA-4695-A5E6-C543540D247D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>ABC130</t>
   </si>
@@ -132,6 +132,19 @@
   </si>
   <si>
     <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓今週解いた部分ということで</t>
+    <rPh sb="1" eb="3">
+      <t>コンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブブン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -639,9 +652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E800DED7-390A-49DF-9D79-6859440E1A3E}">
-  <dimension ref="B2:AA26"/>
+  <dimension ref="B1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -651,6 +666,11 @@
     <col min="9" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="2" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="8" t="s">
         <v>29</v>
@@ -771,6 +791,9 @@
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
@@ -933,7 +956,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>

--- a/abc_py/Progress.xlsx
+++ b/abc_py/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\competition\abc_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE741809-8F0C-4519-87C3-41D03CFFF0E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD87822B-4121-4E0E-A055-2384E23CABDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4230" windowWidth="29040" windowHeight="15990" xr2:uid="{8313301E-11AA-4695-A5E6-C543540D247D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>ABC130</t>
   </si>
@@ -144,6 +144,19 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC135-C: 最大流問題</t>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モンダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -652,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E800DED7-390A-49DF-9D79-6859440E1A3E}">
-  <dimension ref="B1:AA26"/>
+  <dimension ref="B1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -805,6 +818,9 @@
       <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
@@ -814,6 +830,9 @@
         <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -956,7 +975,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
@@ -969,6 +988,11 @@
       <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/abc_py/Progress.xlsx
+++ b/abc_py/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\competition\abc_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD87822B-4121-4E0E-A055-2384E23CABDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22195B8B-8E28-4EF8-A88C-826E2D168C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4230" windowWidth="29040" windowHeight="15990" xr2:uid="{8313301E-11AA-4695-A5E6-C543540D247D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>ABC130</t>
   </si>
@@ -668,7 +668,7 @@
   <dimension ref="B1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -846,6 +846,9 @@
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
@@ -855,6 +858,9 @@
         <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -975,7 +981,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
